--- a/Barcode/Barcode/files/tasks.xlsx
+++ b/Barcode/Barcode/files/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אפרת ורדי\Desktop\פרויקט ברקוד בע''מ\טכני\‏‏אקסלים לתוכנה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efratma\Desktop\barcode\Barcode\Barcode\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BD55B-1D99-41F1-9C24-89EAFFABB775}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F0AB91-CE62-450F-AE3A-FED7AB702AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -454,6 +445,9 @@
   </si>
   <si>
     <t>משימה 137</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -786,20 +780,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.69921875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,8 +803,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -820,8 +817,11 @@
       <c r="C2">
         <v>458312002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -831,8 +831,11 @@
       <c r="C3">
         <v>458312003</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -842,8 +845,11 @@
       <c r="C4">
         <v>458312004</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -853,8 +859,11 @@
       <c r="C5">
         <v>458312005</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -864,8 +873,11 @@
       <c r="C6">
         <v>458312006</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -875,8 +887,11 @@
       <c r="C7">
         <v>458312007</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -886,8 +901,11 @@
       <c r="C8">
         <v>458312008</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -897,8 +915,11 @@
       <c r="C9">
         <v>458312009</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -908,8 +929,11 @@
       <c r="C10">
         <v>458312010</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -919,8 +943,11 @@
       <c r="C11">
         <v>458312011</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -930,8 +957,11 @@
       <c r="C12">
         <v>458312012</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -941,8 +971,11 @@
       <c r="C13">
         <v>458312013</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -952,8 +985,11 @@
       <c r="C14">
         <v>458312014</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -963,8 +999,11 @@
       <c r="C15">
         <v>458312015</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -974,8 +1013,11 @@
       <c r="C16">
         <v>458312016</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -985,8 +1027,11 @@
       <c r="C17">
         <v>458312017</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -996,8 +1041,11 @@
       <c r="C18">
         <v>458312018</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1007,8 +1055,11 @@
       <c r="C19">
         <v>458312019</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1018,8 +1069,11 @@
       <c r="C20">
         <v>458312020</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1029,8 +1083,11 @@
       <c r="C21">
         <v>458312021</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1040,8 +1097,11 @@
       <c r="C22">
         <v>458312022</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1051,8 +1111,11 @@
       <c r="C23">
         <v>458312023</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1062,8 +1125,11 @@
       <c r="C24">
         <v>458312024</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1073,8 +1139,11 @@
       <c r="C25">
         <v>458312025</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1084,8 +1153,11 @@
       <c r="C26">
         <v>458312026</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1095,8 +1167,11 @@
       <c r="C27">
         <v>458312027</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1106,8 +1181,11 @@
       <c r="C28">
         <v>458312028</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1117,8 +1195,11 @@
       <c r="C29">
         <v>458312029</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1128,8 +1209,11 @@
       <c r="C30">
         <v>458312030</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1139,8 +1223,11 @@
       <c r="C31">
         <v>458312031</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1150,8 +1237,11 @@
       <c r="C32">
         <v>458312032</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1161,8 +1251,11 @@
       <c r="C33">
         <v>458312033</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1172,8 +1265,11 @@
       <c r="C34">
         <v>458312034</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1183,8 +1279,11 @@
       <c r="C35">
         <v>458312035</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1194,8 +1293,11 @@
       <c r="C36">
         <v>458312036</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1205,8 +1307,11 @@
       <c r="C37">
         <v>458312037</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1216,8 +1321,11 @@
       <c r="C38">
         <v>458312038</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1227,8 +1335,11 @@
       <c r="C39">
         <v>458312039</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1238,8 +1349,11 @@
       <c r="C40">
         <v>458312040</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1249,8 +1363,11 @@
       <c r="C41">
         <v>458312041</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1260,8 +1377,11 @@
       <c r="C42">
         <v>458312042</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1271,8 +1391,11 @@
       <c r="C43">
         <v>458312043</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1282,8 +1405,11 @@
       <c r="C44">
         <v>458312044</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1293,8 +1419,11 @@
       <c r="C45">
         <v>458312045</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1304,8 +1433,11 @@
       <c r="C46">
         <v>458312046</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1315,8 +1447,11 @@
       <c r="C47">
         <v>458312047</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1326,8 +1461,11 @@
       <c r="C48">
         <v>458312048</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1337,8 +1475,11 @@
       <c r="C49">
         <v>458312049</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1348,8 +1489,11 @@
       <c r="C50">
         <v>458312050</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1359,8 +1503,11 @@
       <c r="C51">
         <v>458312051</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1370,8 +1517,11 @@
       <c r="C52">
         <v>458312052</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1381,8 +1531,11 @@
       <c r="C53">
         <v>458312053</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1392,8 +1545,11 @@
       <c r="C54">
         <v>458312054</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1403,8 +1559,11 @@
       <c r="C55">
         <v>458312055</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1414,8 +1573,11 @@
       <c r="C56">
         <v>458312056</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1425,8 +1587,11 @@
       <c r="C57">
         <v>458312057</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1436,8 +1601,11 @@
       <c r="C58">
         <v>458312058</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1447,8 +1615,11 @@
       <c r="C59">
         <v>458312059</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1458,8 +1629,11 @@
       <c r="C60">
         <v>458312060</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1469,8 +1643,11 @@
       <c r="C61">
         <v>458312061</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1480,8 +1657,11 @@
       <c r="C62">
         <v>458312062</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1491,8 +1671,11 @@
       <c r="C63">
         <v>458312063</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1502,8 +1685,11 @@
       <c r="C64">
         <v>458312064</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1513,8 +1699,11 @@
       <c r="C65">
         <v>458312065</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1524,8 +1713,11 @@
       <c r="C66">
         <v>458312066</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1535,8 +1727,11 @@
       <c r="C67">
         <v>458312067</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1546,8 +1741,11 @@
       <c r="C68">
         <v>458312068</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1557,8 +1755,11 @@
       <c r="C69">
         <v>458312069</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1568,8 +1769,11 @@
       <c r="C70">
         <v>458312070</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1579,8 +1783,11 @@
       <c r="C71">
         <v>458312071</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1590,8 +1797,11 @@
       <c r="C72">
         <v>458312072</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1601,8 +1811,11 @@
       <c r="C73">
         <v>458312073</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1612,8 +1825,11 @@
       <c r="C74">
         <v>458312074</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1623,8 +1839,11 @@
       <c r="C75">
         <v>458312075</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1634,8 +1853,11 @@
       <c r="C76">
         <v>458312076</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1645,8 +1867,11 @@
       <c r="C77">
         <v>458312077</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1656,8 +1881,11 @@
       <c r="C78">
         <v>458312078</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1667,8 +1895,11 @@
       <c r="C79">
         <v>458312079</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1678,8 +1909,11 @@
       <c r="C80">
         <v>458312080</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1689,8 +1923,11 @@
       <c r="C81">
         <v>458312081</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1700,8 +1937,11 @@
       <c r="C82">
         <v>458312082</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1711,8 +1951,11 @@
       <c r="C83">
         <v>458312083</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1722,8 +1965,11 @@
       <c r="C84">
         <v>458312084</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1733,8 +1979,11 @@
       <c r="C85">
         <v>458312085</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1744,8 +1993,11 @@
       <c r="C86">
         <v>458312086</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1755,8 +2007,11 @@
       <c r="C87">
         <v>458312087</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1766,8 +2021,11 @@
       <c r="C88">
         <v>458312088</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1777,8 +2035,11 @@
       <c r="C89">
         <v>458312089</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1788,8 +2049,11 @@
       <c r="C90">
         <v>458312090</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1799,8 +2063,11 @@
       <c r="C91">
         <v>458312091</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1810,8 +2077,11 @@
       <c r="C92">
         <v>458312092</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1821,8 +2091,11 @@
       <c r="C93">
         <v>458312093</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1832,8 +2105,11 @@
       <c r="C94">
         <v>458312094</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1843,8 +2119,11 @@
       <c r="C95">
         <v>458312095</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1854,8 +2133,11 @@
       <c r="C96">
         <v>458312096</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1865,8 +2147,11 @@
       <c r="C97">
         <v>458312097</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -1876,8 +2161,11 @@
       <c r="C98">
         <v>458312098</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -1887,8 +2175,11 @@
       <c r="C99">
         <v>458312099</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -1898,8 +2189,11 @@
       <c r="C100">
         <v>458312100</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -1909,8 +2203,11 @@
       <c r="C101">
         <v>458312101</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -1920,8 +2217,11 @@
       <c r="C102">
         <v>458312102</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -1931,8 +2231,11 @@
       <c r="C103">
         <v>458312103</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -1942,8 +2245,11 @@
       <c r="C104">
         <v>458312104</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -1953,8 +2259,11 @@
       <c r="C105">
         <v>458312105</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -1964,8 +2273,11 @@
       <c r="C106">
         <v>458312106</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -1975,8 +2287,11 @@
       <c r="C107">
         <v>458312107</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -1986,8 +2301,11 @@
       <c r="C108">
         <v>458312108</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -1997,8 +2315,11 @@
       <c r="C109">
         <v>458312109</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2008,8 +2329,11 @@
       <c r="C110">
         <v>458312110</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -2019,8 +2343,11 @@
       <c r="C111">
         <v>458312111</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2030,8 +2357,11 @@
       <c r="C112">
         <v>458312112</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2041,8 +2371,11 @@
       <c r="C113">
         <v>458312113</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2052,8 +2385,11 @@
       <c r="C114">
         <v>458312114</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -2063,8 +2399,11 @@
       <c r="C115">
         <v>458312115</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -2074,8 +2413,11 @@
       <c r="C116">
         <v>458312116</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -2085,8 +2427,11 @@
       <c r="C117">
         <v>458312117</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2096,8 +2441,11 @@
       <c r="C118">
         <v>458312118</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -2107,8 +2455,11 @@
       <c r="C119">
         <v>458312119</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2118,8 +2469,11 @@
       <c r="C120">
         <v>458312120</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2129,8 +2483,11 @@
       <c r="C121">
         <v>458312121</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -2140,8 +2497,11 @@
       <c r="C122">
         <v>458312122</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -2151,8 +2511,11 @@
       <c r="C123">
         <v>458312123</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -2162,8 +2525,11 @@
       <c r="C124">
         <v>458312124</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -2173,8 +2539,11 @@
       <c r="C125">
         <v>458312125</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -2184,8 +2553,11 @@
       <c r="C126">
         <v>458312126</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -2195,8 +2567,11 @@
       <c r="C127">
         <v>458312127</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -2206,8 +2581,11 @@
       <c r="C128">
         <v>458312128</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -2217,8 +2595,11 @@
       <c r="C129">
         <v>458312129</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -2228,8 +2609,11 @@
       <c r="C130">
         <v>358312002</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -2239,8 +2623,11 @@
       <c r="C131">
         <v>358312003</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -2250,8 +2637,11 @@
       <c r="C132">
         <v>358312004</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -2261,8 +2651,11 @@
       <c r="C133">
         <v>358312005</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -2272,8 +2665,11 @@
       <c r="C134">
         <v>358312006</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -2283,8 +2679,11 @@
       <c r="C135">
         <v>358312007</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -2294,8 +2693,11 @@
       <c r="C136">
         <v>358312008</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -2305,8 +2707,11 @@
       <c r="C137">
         <v>358312009</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -2315,6 +2720,9 @@
       </c>
       <c r="C138">
         <v>358312010</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
